--- a/project_busdata.xlsx
+++ b/project_busdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emiljakobsen/Documents/NTNU 4.klasse/7. semester/Power System Analysis/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37c54c2383696bc5/Documents/7.semester/elektriske kraftsystemer/prosjekt/Project_PowerSystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05176B52-48CA-4342-8259-EDEF02CA9F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16240" xr2:uid="{51862819-E72C-374D-96E9-8098D0BFE56E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{51862819-E72C-374D-96E9-8098D0BFE56E}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -449,12 +449,12 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -492,7 +492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -521,7 +521,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -547,7 +547,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -579,7 +579,7 @@
         <v>3.3333000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -605,7 +605,7 @@
         <v>3.3333000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
